--- a/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
+++ b/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="434">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -2195,6 +2195,27 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2207,25 +2228,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2237,29 +2261,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2267,41 +2270,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2320,30 +2344,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2386,7 +2386,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2591,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,70 +3100,70 @@
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="str">
+      <c r="B7" s="128" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F115)</f>
         <v>Kỳ tính thuế: Tháng 9 Năm 2013</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35"/>
@@ -3188,67 +3188,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="128" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="128" t="s">
+      <c r="H12" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="128" t="s">
+      <c r="I12" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="128" t="s">
+      <c r="J12" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="K12" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="128" t="s">
+      <c r="L12" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="128" t="s">
+      <c r="M12" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="33" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="123"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:15" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="123"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
@@ -3261,13 +3261,13 @@
       <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="116" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>30</v>
@@ -7770,6 +7770,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -7779,11 +7784,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -7806,10 +7806,8 @@
   </sheetPr>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7864,66 +7862,66 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="str">
+      <c r="B7" s="140" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F23)</f>
-        <v>Kỳ tính thuế: Tháng 9 Năm 2013</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+        <v>Kỳ tính thuế: Quý 4 Năm 2013</v>
+      </c>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
@@ -7947,62 +7945,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="136" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="136" t="s">
+      <c r="J12" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="136" t="s">
+      <c r="L12" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8015,18 +8013,18 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
       <c r="M14" s="116" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
-        <v>30</v>
-      </c>
-      <c r="N14" s="113">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="N14" s="113" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -8065,16 +8063,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
@@ -8095,16 +8093,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="21"/>
@@ -8125,16 +8123,16 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="21"/>
@@ -12385,16 +12383,16 @@
     </row>
     <row r="138" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="133" t="s">
+      <c r="B139" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="134"/>
-      <c r="D139" s="134"/>
-      <c r="E139" s="134"/>
-      <c r="F139" s="134"/>
-      <c r="G139" s="134"/>
-      <c r="H139" s="134"/>
-      <c r="I139" s="134"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="131"/>
+      <c r="F139" s="131"/>
+      <c r="G139" s="131"/>
+      <c r="H139" s="131"/>
+      <c r="I139" s="131"/>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="21"/>
@@ -12456,7 +12454,7 @@
       <c r="H143" s="11"/>
       <c r="I143" s="32" t="str">
         <f>"Bình Dương, Ngày  "&amp;M14&amp;IF(N14="Q4","   Tháng   12","   Tháng   "&amp;N14)&amp;"   Năm  "&amp;YEAR(F135)</f>
-        <v>Bình Dương, Ngày  30   Tháng   9   Năm  2013</v>
+        <v>Bình Dương, Ngày  31   Tháng   12   Năm  2013</v>
       </c>
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
@@ -12515,6 +12513,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B139:I139"/>
@@ -12527,11 +12530,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -12574,23 +12572,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="151"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
       <c r="R2" s="6" t="s">
         <v>350</v>
       </c>
@@ -12599,23 +12597,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="154"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
       <c r="R3" s="6" t="s">
         <v>352</v>
       </c>
@@ -12625,22 +12623,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="146"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="150"/>
       <c r="R4" s="6" t="s">
         <v>354</v>
       </c>
@@ -12650,22 +12648,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="150"/>
       <c r="R5" s="6" t="s">
         <v>356</v>
       </c>
@@ -12676,21 +12674,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
       <c r="R6" s="6" t="s">
         <v>358</v>
       </c>
@@ -12701,21 +12699,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="143"/>
       <c r="R7" s="6" t="s">
         <v>359</v>
       </c>
@@ -12726,21 +12724,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
       <c r="R8" s="6" t="s">
         <v>361</v>
       </c>
@@ -12751,21 +12749,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="143"/>
       <c r="R9" s="6" t="s">
         <v>363</v>
       </c>
@@ -12776,21 +12774,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
       <c r="R10" s="6" t="s">
         <v>365</v>
       </c>
@@ -12800,22 +12798,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="150"/>
       <c r="R11" s="6" t="s">
         <v>367</v>
       </c>
@@ -12825,22 +12823,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="150"/>
       <c r="R12" s="6" t="s">
         <v>369</v>
       </c>
@@ -12872,23 +12870,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="R14" s="6" t="s">
         <v>372</v>
       </c>
@@ -12898,22 +12896,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="150"/>
       <c r="R15" s="6" t="s">
         <v>114</v>
       </c>
@@ -12924,21 +12922,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="143"/>
       <c r="R16" s="6" t="s">
         <v>112</v>
       </c>
@@ -12974,21 +12972,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="143"/>
       <c r="R18" s="6" t="s">
         <v>376</v>
       </c>
@@ -12999,21 +12997,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="143"/>
       <c r="R19" s="6" t="s">
         <v>118</v>
       </c>
@@ -13024,21 +13022,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="143"/>
       <c r="R20" s="6" t="s">
         <v>378</v>
       </c>
@@ -13047,21 +13045,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
       <c r="R21" s="6" t="s">
         <v>379</v>
       </c>
@@ -13072,21 +13070,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="143"/>
       <c r="R22" s="6" t="s">
         <v>381</v>
       </c>
@@ -13097,21 +13095,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="143"/>
       <c r="R23" s="6" t="s">
         <v>383</v>
       </c>
@@ -13122,63 +13120,63 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="143"/>
       <c r="R24" s="6"/>
       <c r="S24" s="92"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="141" t="s">
+      <c r="D25" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143"/>
       <c r="R25" s="6"/>
       <c r="S25" s="92"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="143"/>
       <c r="R26" s="6"/>
       <c r="S26" s="92"/>
     </row>
@@ -13203,148 +13201,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="150"/>
       <c r="R28" s="6"/>
       <c r="S28" s="92"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="143"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="143"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="143"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="148"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="154"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="143" t="s">
+      <c r="D34" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="144"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="152"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
@@ -13979,6 +13977,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -13993,22 +14007,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14043,23 +14041,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
       <c r="R2" s="6" t="s">
         <v>93</v>
       </c>
@@ -14071,23 +14069,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
       <c r="R3" s="6" t="s">
         <v>194</v>
       </c>
@@ -14100,22 +14098,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="160"/>
       <c r="R4" s="6" t="s">
         <v>196</v>
       </c>
@@ -14128,22 +14126,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="160"/>
       <c r="R5" s="6" t="s">
         <v>197</v>
       </c>
@@ -14157,21 +14155,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="164"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="162"/>
       <c r="R6" s="6" t="s">
         <v>200</v>
       </c>
@@ -14185,21 +14183,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="164"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
       <c r="R7" s="6" t="s">
         <v>203</v>
       </c>
@@ -14213,21 +14211,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
       <c r="R8" s="6" t="s">
         <v>206</v>
       </c>
@@ -14241,21 +14239,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
       <c r="R9" s="6" t="s">
         <v>209</v>
       </c>
@@ -14269,21 +14267,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="162"/>
       <c r="R10" s="6" t="s">
         <v>92</v>
       </c>
@@ -14296,22 +14294,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="162"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
       <c r="R11" s="6" t="s">
         <v>94</v>
       </c>
@@ -14324,22 +14322,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="162"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
       <c r="R12" s="6" t="s">
         <v>213</v>
       </c>
@@ -14377,23 +14375,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="157"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="165"/>
       <c r="R14" s="6" t="s">
         <v>95</v>
       </c>
@@ -14406,22 +14404,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="162"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
       <c r="R15" s="6" t="s">
         <v>217</v>
       </c>
@@ -14435,21 +14433,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
       <c r="R16" s="6" t="s">
         <v>220</v>
       </c>
@@ -14491,21 +14489,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
       <c r="R18" s="61" t="s">
         <v>226</v>
       </c>
@@ -14519,21 +14517,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="163" t="s">
+      <c r="D19" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="162"/>
       <c r="R19" s="61" t="s">
         <v>229</v>
       </c>
@@ -14547,21 +14545,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="163" t="s">
+      <c r="D20" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="164"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
       <c r="R20" s="61" t="s">
         <v>96</v>
       </c>
@@ -14575,21 +14573,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
       <c r="R21" s="61" t="s">
         <v>232</v>
       </c>
@@ -14603,21 +14601,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="163" t="s">
+      <c r="D22" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="164"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
       <c r="R22" s="61" t="s">
         <v>235</v>
       </c>
@@ -14631,21 +14629,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="163" t="s">
+      <c r="D23" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="164"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
       <c r="R23" s="61" t="s">
         <v>238</v>
       </c>
@@ -14659,21 +14657,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="163" t="s">
+      <c r="D24" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="164"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
       <c r="R24" s="61" t="s">
         <v>241</v>
       </c>
@@ -14687,21 +14685,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="162"/>
       <c r="R25" s="61" t="s">
         <v>244</v>
       </c>
@@ -14715,21 +14713,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="162"/>
       <c r="R26" s="61" t="s">
         <v>247</v>
       </c>
@@ -14743,21 +14741,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="163" t="s">
+      <c r="D27" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="164"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="162"/>
       <c r="R27" s="61" t="s">
         <v>250</v>
       </c>
@@ -14796,22 +14794,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="161" t="s">
+      <c r="C29" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="162"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -14819,21 +14817,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="163" t="s">
+      <c r="D30" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="164"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="162"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -14841,21 +14839,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="163" t="s">
+      <c r="D31" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="162"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -14863,21 +14861,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="163" t="s">
+      <c r="D32" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="164"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="162"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -14885,21 +14883,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="163" t="s">
+      <c r="D33" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="162"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -14907,21 +14905,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="165"/>
-      <c r="P34" s="166"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="156"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -14929,21 +14927,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="165" t="s">
+      <c r="D35" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="165"/>
-      <c r="P35" s="166"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="156"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -14951,21 +14949,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="167" t="s">
+      <c r="D36" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="167"/>
-      <c r="P36" s="168"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="158"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -15042,14 +15040,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -15062,18 +15064,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
+++ b/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -1511,6 +1511,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2195,6 +2196,18 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,17 +2229,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2252,23 +2262,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2288,20 +2304,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2314,36 +2345,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2386,7 +2387,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2592,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,10 +3041,10 @@
   </sheetPr>
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3100,70 +3101,70 @@
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="128" t="str">
+      <c r="B7" s="121" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F115)</f>
         <v>Kỳ tính thuế: Tháng 9 Năm 2013</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35"/>
@@ -3188,67 +3189,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="119" t="s">
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="119" t="s">
+      <c r="I12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="119" t="s">
+      <c r="J12" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="119" t="s">
+      <c r="L12" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="119" t="s">
+      <c r="M12" s="123" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="33" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="121"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
     </row>
     <row r="14" spans="1:15" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="121"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
@@ -3261,13 +3262,13 @@
       <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
       <c r="N14" s="116" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>30</v>
@@ -6619,7 +6620,7 @@
       <c r="N96" s="54"/>
       <c r="O96" s="55"/>
     </row>
-    <row r="97" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="57">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -6660,7 +6661,7 @@
       <c r="N97" s="54"/>
       <c r="O97" s="55"/>
     </row>
-    <row r="98" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="57">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -6701,7 +6702,7 @@
       <c r="N98" s="54"/>
       <c r="O98" s="55"/>
     </row>
-    <row r="99" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="57">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -6742,7 +6743,7 @@
       <c r="N99" s="54"/>
       <c r="O99" s="55"/>
     </row>
-    <row r="100" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="57">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -6783,7 +6784,7 @@
       <c r="N100" s="54"/>
       <c r="O100" s="55"/>
     </row>
-    <row r="101" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="57">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -6824,7 +6825,7 @@
       <c r="N101" s="54"/>
       <c r="O101" s="55"/>
     </row>
-    <row r="102" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="57">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -6865,7 +6866,7 @@
       <c r="N102" s="54"/>
       <c r="O102" s="55"/>
     </row>
-    <row r="103" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="57">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -6906,7 +6907,7 @@
       <c r="N103" s="54"/>
       <c r="O103" s="55"/>
     </row>
-    <row r="104" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="57">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -6947,7 +6948,7 @@
       <c r="N104" s="54"/>
       <c r="O104" s="55"/>
     </row>
-    <row r="105" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="57">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -6988,7 +6989,7 @@
       <c r="N105" s="54"/>
       <c r="O105" s="55"/>
     </row>
-    <row r="106" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="57">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -7029,7 +7030,7 @@
       <c r="N106" s="54"/>
       <c r="O106" s="55"/>
     </row>
-    <row r="107" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="57">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -7070,7 +7071,7 @@
       <c r="N107" s="54"/>
       <c r="O107" s="55"/>
     </row>
-    <row r="108" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="57">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -7109,9 +7110,12 @@
         <v>348</v>
       </c>
       <c r="N108" s="54"/>
-      <c r="O108" s="55"/>
-    </row>
-    <row r="109" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O108" s="55">
+        <f>MONTH(F108)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="57">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -7150,9 +7154,12 @@
         <v>348</v>
       </c>
       <c r="N109" s="54"/>
-      <c r="O109" s="55"/>
-    </row>
-    <row r="110" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O109" s="55">
+        <f t="shared" ref="O109:O115" si="6">MONTH(F109)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="57">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -7191,9 +7198,12 @@
         <v>348</v>
       </c>
       <c r="N110" s="54"/>
-      <c r="O110" s="55"/>
-    </row>
-    <row r="111" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O110" s="55">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="57">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -7232,9 +7242,12 @@
         <v>348</v>
       </c>
       <c r="N111" s="54"/>
-      <c r="O111" s="55"/>
-    </row>
-    <row r="112" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O111" s="55">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="57">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -7273,9 +7286,12 @@
         <v>348</v>
       </c>
       <c r="N112" s="54"/>
-      <c r="O112" s="55"/>
-    </row>
-    <row r="113" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O112" s="55">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="57">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -7314,16 +7330,19 @@
         <v>348</v>
       </c>
       <c r="N113" s="54"/>
-      <c r="O113" s="55"/>
-    </row>
-    <row r="114" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O113" s="55">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="57">
-        <f t="shared" ref="B114:B115" si="6">IF(G114&lt;&gt;"",ROW()-17,"")</f>
+        <f t="shared" ref="B114:B115" si="7">IF(G114&lt;&gt;"",ROW()-17,"")</f>
         <v>97</v>
       </c>
       <c r="C114" s="64"/>
       <c r="D114" s="59" t="str">
-        <f t="shared" ref="D114:D115" si="7">IF(ISNA(VLOOKUP(G114,DSMV,3,0)),"",VLOOKUP(G114,DSMV,3,0))</f>
+        <f t="shared" ref="D114:D115" si="8">IF(ISNA(VLOOKUP(G114,DSMV,3,0)),"",VLOOKUP(G114,DSMV,3,0))</f>
         <v>TA/12P</v>
       </c>
       <c r="E114" s="58" t="s">
@@ -7336,7 +7355,7 @@
         <v>223</v>
       </c>
       <c r="H114" s="91" t="str">
-        <f t="shared" ref="H114:H115" si="8">IF(ISNA(VLOOKUP(G114,DSMV,2,0)),"",VLOOKUP(G114,DSMV,2,0))</f>
+        <f t="shared" ref="H114:H115" si="9">IF(ISNA(VLOOKUP(G114,DSMV,2,0)),"",VLOOKUP(G114,DSMV,2,0))</f>
         <v>0300655374</v>
       </c>
       <c r="I114" s="61" t="s">
@@ -7355,16 +7374,19 @@
         <v>348</v>
       </c>
       <c r="N114" s="54"/>
-      <c r="O114" s="55"/>
-    </row>
-    <row r="115" spans="2:15" s="33" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O114" s="55">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="C115" s="64"/>
       <c r="D115" s="59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>TL/13P</v>
       </c>
       <c r="E115" s="58" t="s">
@@ -7377,7 +7399,7 @@
         <v>209</v>
       </c>
       <c r="H115" s="91" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0312363175</v>
       </c>
       <c r="I115" s="61" t="s">
@@ -7396,7 +7418,10 @@
         <v>348</v>
       </c>
       <c r="N115" s="54"/>
-      <c r="O115" s="55"/>
+      <c r="O115" s="55">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="116" spans="2:15" s="33" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="57"/>
@@ -7427,12 +7452,12 @@
       <c r="I117" s="68"/>
       <c r="J117" s="70">
         <f>SUBTOTAL(9,J17:J116)</f>
-        <v>256660186</v>
+        <v>438873848</v>
       </c>
       <c r="K117" s="70"/>
       <c r="L117" s="70">
         <f>SUBTOTAL(9,L17:L116)</f>
-        <v>25666018</v>
+        <v>43887384</v>
       </c>
       <c r="M117" s="68"/>
       <c r="N117" s="55"/>
@@ -7654,7 +7679,7 @@
       <c r="G131" s="34"/>
       <c r="H131" s="112">
         <f>J117</f>
-        <v>256660186</v>
+        <v>438873848</v>
       </c>
       <c r="I131" s="34"/>
       <c r="K131" s="36"/>
@@ -7669,7 +7694,7 @@
       <c r="G132" s="34"/>
       <c r="H132" s="112">
         <f>L117</f>
-        <v>25666018</v>
+        <v>43887384</v>
       </c>
       <c r="I132" s="34"/>
       <c r="K132" s="36"/>
@@ -7765,16 +7790,11 @@
   <autoFilter ref="A16:Q115">
     <filterColumn colId="12">
       <filters>
-        <filter val="9"/>
+        <filter val="Q4"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -7784,6 +7804,11 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -7806,8 +7831,8 @@
   </sheetPr>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J137" sqref="J137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7862,66 +7887,66 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="139"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="140" t="str">
+      <c r="B7" s="132" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F23)</f>
         <v>Kỳ tính thuế: Quý 4 Năm 2013</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
@@ -7945,62 +7970,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="133" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="136" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="133"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="133"/>
+      <c r="B14" s="136"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8013,12 +8038,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
       <c r="M14" s="116" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
         <v>31</v>
@@ -8063,16 +8088,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
@@ -8093,16 +8118,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="21"/>
@@ -8123,16 +8148,16 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="21"/>
@@ -10720,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -10757,7 +10782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -10794,7 +10819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="4">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -10831,7 +10856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -10868,7 +10893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="4">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -10905,7 +10930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -10942,7 +10967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="4">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -10979,7 +11004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -11016,7 +11041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="4">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -11053,7 +11078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -11090,7 +11115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="4">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -11127,7 +11152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="4">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -11162,7 +11187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="4">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -11198,8 +11223,12 @@
       <c r="L104" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="105" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="10">
+        <f>MONTH(F104)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="4">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -11235,8 +11264,12 @@
       <c r="L105" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="106" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="10">
+        <f>MONTH(F105)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="4">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -11272,8 +11305,12 @@
       <c r="L106" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="107" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="10">
+        <f t="shared" ref="M106:M135" si="4">MONTH(F106)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="4">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -11309,8 +11346,12 @@
       <c r="L107" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="108" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="4">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -11346,8 +11387,12 @@
       <c r="L108" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="109" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="4">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -11383,8 +11428,12 @@
       <c r="L109" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="110" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="4">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -11420,8 +11469,12 @@
       <c r="L110" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="111" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="4">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -11457,8 +11510,12 @@
       <c r="L111" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="112" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="4">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -11479,7 +11536,7 @@
         <v>359</v>
       </c>
       <c r="H112" s="30" t="str">
-        <f t="shared" ref="H112:H118" si="4">IF(ISNA(VLOOKUP(G112,DSBR,2,0)),"",VLOOKUP(G112,DSBR,2,0))</f>
+        <f t="shared" ref="H112:H118" si="5">IF(ISNA(VLOOKUP(G112,DSBR,2,0)),"",VLOOKUP(G112,DSBR,2,0))</f>
         <v>0311195055</v>
       </c>
       <c r="I112" s="7" t="s">
@@ -11494,8 +11551,12 @@
       <c r="L112" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="4">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -11516,7 +11577,7 @@
         <v>383</v>
       </c>
       <c r="H113" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312173505</v>
       </c>
       <c r="I113" s="7" t="s">
@@ -11531,8 +11592,12 @@
       <c r="L113" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="4">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -11553,7 +11618,7 @@
         <v>363</v>
       </c>
       <c r="H114" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3700339499</v>
       </c>
       <c r="I114" s="7" t="s">
@@ -11568,8 +11633,12 @@
       <c r="L114" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="4">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -11590,7 +11659,7 @@
         <v>350</v>
       </c>
       <c r="H115" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0305002280-001</v>
       </c>
       <c r="I115" s="7" t="s">
@@ -11605,8 +11674,12 @@
       <c r="L115" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="4">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -11627,7 +11700,7 @@
         <v>361</v>
       </c>
       <c r="H116" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3700351457</v>
       </c>
       <c r="I116" s="7" t="s">
@@ -11642,8 +11715,12 @@
       <c r="L116" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="117" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="4">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -11664,7 +11741,7 @@
         <v>356</v>
       </c>
       <c r="H117" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3702209047</v>
       </c>
       <c r="I117" s="7" t="s">
@@ -11679,8 +11756,12 @@
       <c r="L117" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="4">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -11701,7 +11782,7 @@
         <v>365</v>
       </c>
       <c r="H118" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3700663022</v>
       </c>
       <c r="I118" s="7" t="s">
@@ -11714,8 +11795,12 @@
       <c r="L118" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="119" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="4">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -11736,7 +11821,7 @@
         <v>350</v>
       </c>
       <c r="H119" s="30" t="str">
-        <f t="shared" ref="H119:H122" si="5">IF(ISNA(VLOOKUP(G119,DSBR,2,0)),"",VLOOKUP(G119,DSBR,2,0))</f>
+        <f t="shared" ref="H119:H122" si="6">IF(ISNA(VLOOKUP(G119,DSBR,2,0)),"",VLOOKUP(G119,DSBR,2,0))</f>
         <v>0305002280-001</v>
       </c>
       <c r="I119" s="7" t="s">
@@ -11751,8 +11836,12 @@
       <c r="L119" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="120" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="10">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="4">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -11773,7 +11862,7 @@
         <v>363</v>
       </c>
       <c r="H120" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3700339499</v>
       </c>
       <c r="I120" s="7" t="s">
@@ -11788,8 +11877,12 @@
       <c r="L120" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="121" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="4">
         <f t="shared" si="3"/>
         <v>99</v>
@@ -11810,7 +11903,7 @@
         <v>350</v>
       </c>
       <c r="H121" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0305002280-001</v>
       </c>
       <c r="I121" s="7" t="s">
@@ -11825,8 +11918,12 @@
       <c r="L121" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="122" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="4">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -11847,7 +11944,7 @@
         <v>350</v>
       </c>
       <c r="H122" s="30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0305002280-001</v>
       </c>
       <c r="I122" s="7" t="s">
@@ -11862,8 +11959,12 @@
       <c r="L122" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="123" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="4">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -11884,7 +11985,7 @@
         <v>359</v>
       </c>
       <c r="H123" s="30" t="str">
-        <f t="shared" ref="H123:H135" si="6">IF(ISNA(VLOOKUP(G123,DSBR,2,0)),"",VLOOKUP(G123,DSBR,2,0))</f>
+        <f t="shared" ref="H123:H135" si="7">IF(ISNA(VLOOKUP(G123,DSBR,2,0)),"",VLOOKUP(G123,DSBR,2,0))</f>
         <v>0311195055</v>
       </c>
       <c r="I123" s="7" t="s">
@@ -11899,8 +12000,12 @@
       <c r="L123" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="124" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M123" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="4">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -11921,7 +12026,7 @@
         <v>356</v>
       </c>
       <c r="H124" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3702209047</v>
       </c>
       <c r="I124" s="7" t="s">
@@ -11936,8 +12041,12 @@
       <c r="L124" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="125" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M124" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="4">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -11958,7 +12067,7 @@
         <v>376</v>
       </c>
       <c r="H125" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700333385</v>
       </c>
       <c r="I125" s="7" t="s">
@@ -11973,8 +12082,12 @@
       <c r="L125" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="126" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M125" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="4">
         <f t="shared" si="3"/>
         <v>104</v>
@@ -11995,7 +12108,7 @@
         <v>361</v>
       </c>
       <c r="H126" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700351457</v>
       </c>
       <c r="I126" s="7" t="s">
@@ -12010,8 +12123,12 @@
       <c r="L126" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="127" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M126" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="4">
         <f t="shared" si="3"/>
         <v>105</v>
@@ -12032,7 +12149,7 @@
         <v>369</v>
       </c>
       <c r="H127" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3702012883</v>
       </c>
       <c r="I127" s="7" t="s">
@@ -12047,8 +12164,12 @@
       <c r="L127" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="128" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M127" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="4">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -12069,7 +12190,7 @@
         <v>383</v>
       </c>
       <c r="H128" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0312173505</v>
       </c>
       <c r="I128" s="7" t="s">
@@ -12084,8 +12205,12 @@
       <c r="L128" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="129" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M128" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="4">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -12106,7 +12231,7 @@
         <v>361</v>
       </c>
       <c r="H129" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700351457</v>
       </c>
       <c r="I129" s="7" t="s">
@@ -12121,8 +12246,12 @@
       <c r="L129" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="130" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M129" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="4">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -12143,7 +12272,7 @@
         <v>369</v>
       </c>
       <c r="H130" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3702012883</v>
       </c>
       <c r="I130" s="7" t="s">
@@ -12158,8 +12287,12 @@
       <c r="L130" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="131" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M130" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="4">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -12180,7 +12313,7 @@
         <v>350</v>
       </c>
       <c r="H131" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0305002280-001</v>
       </c>
       <c r="I131" s="7" t="s">
@@ -12195,8 +12328,12 @@
       <c r="L131" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="132" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M131" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="4">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -12217,7 +12354,7 @@
         <v>350</v>
       </c>
       <c r="H132" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0305002280-001</v>
       </c>
       <c r="I132" s="7" t="s">
@@ -12232,8 +12369,12 @@
       <c r="L132" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="133" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M132" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="4">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -12254,7 +12395,7 @@
         <v>376</v>
       </c>
       <c r="H133" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700333385</v>
       </c>
       <c r="I133" s="7" t="s">
@@ -12269,8 +12410,12 @@
       <c r="L133" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="134" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M133" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="4">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -12291,7 +12436,7 @@
         <v>356</v>
       </c>
       <c r="H134" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3702209047</v>
       </c>
       <c r="I134" s="7" t="s">
@@ -12306,8 +12451,12 @@
       <c r="L134" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="135" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M134" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="4">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -12328,7 +12477,7 @@
         <v>376</v>
       </c>
       <c r="H135" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3700333385</v>
       </c>
       <c r="I135" s="7" t="s">
@@ -12343,8 +12492,12 @@
       <c r="L135" s="63" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="136" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M135" s="10">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -12360,7 +12513,7 @@
       <c r="K136" s="8"/>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="2:12" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:13" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="24" t="s">
         <v>11</v>
       </c>
@@ -12373,31 +12526,31 @@
       <c r="I137" s="24"/>
       <c r="J137" s="25">
         <f>SUBTOTAL(9,J23:J136)</f>
-        <v>208664598</v>
+        <v>476118249</v>
       </c>
       <c r="K137" s="25">
         <f>SUBTOTAL(9,K23:K136)</f>
-        <v>18421458</v>
+        <v>45166827</v>
       </c>
       <c r="L137" s="26"/>
     </row>
-    <row r="138" spans="2:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="130" t="s">
+    <row r="138" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="131"/>
-      <c r="D139" s="131"/>
-      <c r="E139" s="131"/>
-      <c r="F139" s="131"/>
-      <c r="G139" s="131"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="131"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="134"/>
+      <c r="G139" s="134"/>
+      <c r="H139" s="134"/>
+      <c r="I139" s="134"/>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="21"/>
     </row>
-    <row r="140" spans="2:12" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:13" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="19" t="s">
         <v>11</v>
       </c>
@@ -12412,7 +12565,7 @@
       <c r="K140" s="20"/>
       <c r="L140" s="19"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
       <c r="D141" s="11"/>
@@ -12423,12 +12576,12 @@
       <c r="G141" s="11"/>
       <c r="H141" s="112">
         <f>J137</f>
-        <v>208664598</v>
+        <v>476118249</v>
       </c>
       <c r="I141" s="11"/>
       <c r="L141" s="11"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
@@ -12439,12 +12592,12 @@
       <c r="G142" s="11"/>
       <c r="H142" s="112">
         <f>K137</f>
-        <v>18421458</v>
+        <v>45166827</v>
       </c>
       <c r="I142" s="11"/>
       <c r="L142" s="11"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
       <c r="D143" s="11"/>
@@ -12457,7 +12610,7 @@
         <v>Bình Dương, Ngày  31   Tháng   12   Năm  2013</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
@@ -12508,16 +12661,11 @@
   <autoFilter ref="A22:N136">
     <filterColumn colId="11">
       <filters>
-        <filter val="9"/>
+        <filter val="Q4"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B139:I139"/>
@@ -12530,6 +12678,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -12572,23 +12725,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
       <c r="R2" s="6" t="s">
         <v>350</v>
       </c>
@@ -12597,23 +12750,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="149"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
       <c r="R3" s="6" t="s">
         <v>352</v>
       </c>
@@ -12623,22 +12776,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="150"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="146"/>
       <c r="R4" s="6" t="s">
         <v>354</v>
       </c>
@@ -12648,22 +12801,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="150"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
       <c r="R5" s="6" t="s">
         <v>356</v>
       </c>
@@ -12674,21 +12827,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="143"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="142"/>
       <c r="R6" s="6" t="s">
         <v>358</v>
       </c>
@@ -12699,21 +12852,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="143"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="142"/>
       <c r="R7" s="6" t="s">
         <v>359</v>
       </c>
@@ -12724,21 +12877,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="143"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="142"/>
       <c r="R8" s="6" t="s">
         <v>361</v>
       </c>
@@ -12749,21 +12902,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="143"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="142"/>
       <c r="R9" s="6" t="s">
         <v>363</v>
       </c>
@@ -12774,21 +12927,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="141" t="s">
+      <c r="D10" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="143"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="142"/>
       <c r="R10" s="6" t="s">
         <v>365</v>
       </c>
@@ -12798,22 +12951,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="150"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
       <c r="R11" s="6" t="s">
         <v>367</v>
       </c>
@@ -12823,22 +12976,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="150"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
       <c r="R12" s="6" t="s">
         <v>369</v>
       </c>
@@ -12870,23 +13023,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="149"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="R14" s="6" t="s">
         <v>372</v>
       </c>
@@ -12896,22 +13049,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="150"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
       <c r="R15" s="6" t="s">
         <v>114</v>
       </c>
@@ -12922,21 +13075,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="143"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="142"/>
       <c r="R16" s="6" t="s">
         <v>112</v>
       </c>
@@ -12972,21 +13125,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="143"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="142"/>
       <c r="R18" s="6" t="s">
         <v>376</v>
       </c>
@@ -12997,21 +13150,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="143"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
       <c r="R19" s="6" t="s">
         <v>118</v>
       </c>
@@ -13022,21 +13175,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="143"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="142"/>
       <c r="R20" s="6" t="s">
         <v>378</v>
       </c>
@@ -13045,21 +13198,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="143"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
       <c r="R21" s="6" t="s">
         <v>379</v>
       </c>
@@ -13070,21 +13223,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="142"/>
-      <c r="O22" s="142"/>
-      <c r="P22" s="143"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
       <c r="R22" s="6" t="s">
         <v>381</v>
       </c>
@@ -13095,21 +13248,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="143"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
       <c r="R23" s="6" t="s">
         <v>383</v>
       </c>
@@ -13120,63 +13273,63 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="142" t="s">
+      <c r="D24" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="143"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="142"/>
       <c r="R24" s="6"/>
       <c r="S24" s="92"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="142" t="s">
+      <c r="D25" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="143"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="142"/>
       <c r="R25" s="6"/>
       <c r="S25" s="92"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="142" t="s">
+      <c r="D26" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="142"/>
-      <c r="O26" s="142"/>
-      <c r="P26" s="143"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="142"/>
       <c r="R26" s="6"/>
       <c r="S26" s="92"/>
     </row>
@@ -13201,148 +13354,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="150"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
       <c r="R28" s="6"/>
       <c r="S28" s="92"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="142" t="s">
+      <c r="D29" s="141" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="143"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="143"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="142"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="142" t="s">
+      <c r="D31" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="143"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="142"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="142" t="s">
+      <c r="D32" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="143"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="142"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="153" t="s">
+      <c r="D33" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="153"/>
-      <c r="P33" s="154"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="148"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="152"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="144"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
@@ -13977,22 +14130,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -14007,6 +14144,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14041,23 +14194,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="168"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
       <c r="R2" s="6" t="s">
         <v>93</v>
       </c>
@@ -14069,23 +14222,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
       <c r="R3" s="6" t="s">
         <v>194</v>
       </c>
@@ -14098,22 +14251,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="162"/>
       <c r="R4" s="6" t="s">
         <v>196</v>
       </c>
@@ -14126,22 +14279,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
+      <c r="L5" s="161"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161"/>
+      <c r="P5" s="162"/>
       <c r="R5" s="6" t="s">
         <v>197</v>
       </c>
@@ -14155,21 +14308,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="162"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="164"/>
       <c r="R6" s="6" t="s">
         <v>200</v>
       </c>
@@ -14183,21 +14336,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="162"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="164"/>
       <c r="R7" s="6" t="s">
         <v>203</v>
       </c>
@@ -14211,21 +14364,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="159" t="s">
+      <c r="D8" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="161"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="161"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="162"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="164"/>
       <c r="R8" s="6" t="s">
         <v>206</v>
       </c>
@@ -14239,21 +14392,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="159" t="s">
+      <c r="D9" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="162"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="164"/>
       <c r="R9" s="6" t="s">
         <v>209</v>
       </c>
@@ -14267,21 +14420,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="159" t="s">
+      <c r="D10" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="164"/>
       <c r="R10" s="6" t="s">
         <v>92</v>
       </c>
@@ -14294,22 +14447,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="162"/>
       <c r="R11" s="6" t="s">
         <v>94</v>
       </c>
@@ -14322,22 +14475,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="160"/>
+      <c r="D12" s="161"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
       <c r="R12" s="6" t="s">
         <v>213</v>
       </c>
@@ -14375,23 +14528,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="165"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="157"/>
       <c r="R14" s="6" t="s">
         <v>95</v>
       </c>
@@ -14404,22 +14557,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="160"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
       <c r="R15" s="6" t="s">
         <v>217</v>
       </c>
@@ -14433,21 +14586,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="161" t="s">
+      <c r="D16" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="163"/>
+      <c r="O16" s="163"/>
+      <c r="P16" s="164"/>
       <c r="R16" s="6" t="s">
         <v>220</v>
       </c>
@@ -14489,21 +14642,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="161" t="s">
+      <c r="D18" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="164"/>
       <c r="R18" s="61" t="s">
         <v>226</v>
       </c>
@@ -14517,21 +14670,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="161" t="s">
+      <c r="D19" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="162"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="164"/>
       <c r="R19" s="61" t="s">
         <v>229</v>
       </c>
@@ -14545,21 +14698,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="161" t="s">
+      <c r="D20" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="164"/>
       <c r="R20" s="61" t="s">
         <v>96</v>
       </c>
@@ -14573,21 +14726,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="162"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="163"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="164"/>
       <c r="R21" s="61" t="s">
         <v>232</v>
       </c>
@@ -14601,21 +14754,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="161" t="s">
+      <c r="D22" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="162"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="163"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="164"/>
       <c r="R22" s="61" t="s">
         <v>235</v>
       </c>
@@ -14629,21 +14782,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="161" t="s">
+      <c r="D23" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="162"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="163"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="164"/>
       <c r="R23" s="61" t="s">
         <v>238</v>
       </c>
@@ -14657,21 +14810,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="161" t="s">
+      <c r="D24" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="162"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="163"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="163"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="164"/>
       <c r="R24" s="61" t="s">
         <v>241</v>
       </c>
@@ -14685,21 +14838,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="161" t="s">
+      <c r="D25" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="162"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="163"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="163"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="164"/>
       <c r="R25" s="61" t="s">
         <v>244</v>
       </c>
@@ -14713,21 +14866,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="162"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="164"/>
       <c r="R26" s="61" t="s">
         <v>247</v>
       </c>
@@ -14741,21 +14894,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="162"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="164"/>
       <c r="R27" s="61" t="s">
         <v>250</v>
       </c>
@@ -14794,22 +14947,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="160"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="162"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -14817,21 +14970,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="162"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="163"/>
+      <c r="O30" s="163"/>
+      <c r="P30" s="164"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -14839,21 +14992,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="161" t="s">
+      <c r="D31" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="163"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="164"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -14861,21 +15014,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="161" t="s">
+      <c r="D32" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="162"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="164"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -14883,21 +15036,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="161" t="s">
+      <c r="D33" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="163"/>
+      <c r="K33" s="163"/>
+      <c r="L33" s="163"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="163"/>
+      <c r="O33" s="163"/>
+      <c r="P33" s="164"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -14905,21 +15058,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="155" t="s">
+      <c r="D34" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="156"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="165"/>
+      <c r="M34" s="165"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="165"/>
+      <c r="P34" s="166"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -14927,21 +15080,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="155" t="s">
+      <c r="D35" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="156"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="165"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="165"/>
+      <c r="N35" s="165"/>
+      <c r="O35" s="165"/>
+      <c r="P35" s="166"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -14949,21 +15102,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="157" t="s">
+      <c r="D36" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="157"/>
-      <c r="L36" s="157"/>
-      <c r="M36" s="157"/>
-      <c r="N36" s="157"/>
-      <c r="O36" s="157"/>
-      <c r="P36" s="158"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="168"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -15040,6 +15193,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -15052,26 +15225,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
+++ b/SO SACH/3702076037/2013/BANGKE GTGT - 13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -2196,6 +2196,27 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2208,25 +2229,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2238,29 +2262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2268,41 +2271,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2321,30 +2345,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2387,7 +2387,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2592,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,10 +3041,10 @@
   </sheetPr>
   <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
+      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3101,70 +3101,70 @@
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="121" t="str">
+      <c r="B7" s="128" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F115)</f>
         <v>Kỳ tính thuế: Tháng 9 Năm 2013</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="35"/>
@@ -3189,67 +3189,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="129"/>
+      <c r="K11" s="129"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
     </row>
     <row r="12" spans="1:15" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="123" t="s">
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="123" t="s">
+      <c r="J12" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="124" t="s">
+      <c r="K12" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="123" t="s">
+      <c r="M12" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="33" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="125"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:15" s="33" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="125"/>
+      <c r="B14" s="121"/>
       <c r="C14" s="39" t="s">
         <v>43</v>
       </c>
@@ -3262,13 +3262,13 @@
       <c r="F14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="123"/>
-      <c r="M14" s="123"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="116" t="str">
         <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
         <v>30</v>
@@ -7795,6 +7795,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -7804,11 +7809,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -7831,8 +7831,8 @@
   </sheetPr>
   <dimension ref="A1:N147"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J137" sqref="J137"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7887,66 +7887,66 @@
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="str">
+      <c r="B7" s="140" t="str">
         <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F23)</f>
         <v>Kỳ tính thuế: Quý 4 Năm 2013</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="13"/>
@@ -7970,62 +7970,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="136" t="s">
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="136" t="s">
+      <c r="H12" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="136" t="s">
+      <c r="I12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="136" t="s">
+      <c r="J12" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="136" t="s">
+      <c r="L12" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -8038,12 +8038,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
       <c r="M14" s="116" t="str">
         <f>IF(OR($N$14=4,$N$14=6,$N$14=9,$N$14=11),"30",IF($N$14=2,"28","31"))</f>
         <v>31</v>
@@ -8088,16 +8088,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="17"/>
@@ -8118,16 +8118,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="21"/>
@@ -8148,16 +8148,16 @@
       <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="21"/>
@@ -12536,16 +12536,16 @@
     </row>
     <row r="138" spans="2:13" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="133" t="s">
+      <c r="B139" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="134"/>
-      <c r="D139" s="134"/>
-      <c r="E139" s="134"/>
-      <c r="F139" s="134"/>
-      <c r="G139" s="134"/>
-      <c r="H139" s="134"/>
-      <c r="I139" s="134"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="131"/>
+      <c r="F139" s="131"/>
+      <c r="G139" s="131"/>
+      <c r="H139" s="131"/>
+      <c r="I139" s="131"/>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
       <c r="L139" s="21"/>
@@ -12666,6 +12666,11 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="B139:I139"/>
@@ -12678,11 +12683,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -12725,23 +12725,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="151"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
       <c r="R2" s="6" t="s">
         <v>350</v>
       </c>
@@ -12750,23 +12750,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="154"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
       <c r="R3" s="6" t="s">
         <v>352</v>
       </c>
@@ -12776,22 +12776,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="93"/>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-      <c r="O4" s="145"/>
-      <c r="P4" s="146"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="150"/>
       <c r="R4" s="6" t="s">
         <v>354</v>
       </c>
@@ -12801,22 +12801,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="150"/>
       <c r="R5" s="6" t="s">
         <v>356</v>
       </c>
@@ -12827,21 +12827,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="93"/>
       <c r="C6" s="94"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="142"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="143"/>
       <c r="R6" s="6" t="s">
         <v>358</v>
       </c>
@@ -12852,21 +12852,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="93"/>
       <c r="C7" s="94"/>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="143"/>
       <c r="R7" s="6" t="s">
         <v>359</v>
       </c>
@@ -12877,21 +12877,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="93"/>
       <c r="C8" s="94"/>
-      <c r="D8" s="145" t="s">
+      <c r="D8" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="143"/>
       <c r="R8" s="6" t="s">
         <v>361</v>
       </c>
@@ -12902,21 +12902,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="143"/>
       <c r="R9" s="6" t="s">
         <v>363</v>
       </c>
@@ -12927,21 +12927,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="142"/>
+      <c r="O10" s="142"/>
+      <c r="P10" s="143"/>
       <c r="R10" s="6" t="s">
         <v>365</v>
       </c>
@@ -12951,22 +12951,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="150"/>
       <c r="R11" s="6" t="s">
         <v>367</v>
       </c>
@@ -12976,22 +12976,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="150"/>
       <c r="R12" s="6" t="s">
         <v>369</v>
       </c>
@@ -13023,23 +13023,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="149"/>
       <c r="R14" s="6" t="s">
         <v>372</v>
       </c>
@@ -13049,22 +13049,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="93"/>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="150"/>
       <c r="R15" s="6" t="s">
         <v>114</v>
       </c>
@@ -13075,21 +13075,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
       <c r="C16" s="96"/>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="143"/>
       <c r="R16" s="6" t="s">
         <v>112</v>
       </c>
@@ -13125,21 +13125,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="93"/>
       <c r="C18" s="94"/>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="143"/>
       <c r="R18" s="6" t="s">
         <v>376</v>
       </c>
@@ -13150,21 +13150,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="93"/>
       <c r="C19" s="94"/>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="143"/>
       <c r="R19" s="6" t="s">
         <v>118</v>
       </c>
@@ -13175,21 +13175,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
       <c r="C20" s="94"/>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="143"/>
       <c r="R20" s="6" t="s">
         <v>378</v>
       </c>
@@ -13198,21 +13198,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="93"/>
       <c r="C21" s="94"/>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="143"/>
       <c r="R21" s="6" t="s">
         <v>379</v>
       </c>
@@ -13223,21 +13223,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
       <c r="C22" s="94"/>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="142"/>
+      <c r="O22" s="142"/>
+      <c r="P22" s="143"/>
       <c r="R22" s="6" t="s">
         <v>381</v>
       </c>
@@ -13248,21 +13248,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
       <c r="C23" s="94"/>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="143"/>
       <c r="R23" s="6" t="s">
         <v>383</v>
       </c>
@@ -13273,63 +13273,63 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
       <c r="C24" s="94"/>
-      <c r="D24" s="141" t="s">
+      <c r="D24" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="143"/>
       <c r="R24" s="6"/>
       <c r="S24" s="92"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
       <c r="C25" s="94"/>
-      <c r="D25" s="141" t="s">
+      <c r="D25" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="143"/>
       <c r="R25" s="6"/>
       <c r="S25" s="92"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
       <c r="C26" s="94"/>
-      <c r="D26" s="141" t="s">
+      <c r="D26" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="143"/>
       <c r="R26" s="6"/>
       <c r="S26" s="92"/>
     </row>
@@ -13354,148 +13354,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="93"/>
-      <c r="C28" s="145" t="s">
+      <c r="C28" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="150"/>
       <c r="R28" s="6"/>
       <c r="S28" s="92"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="93"/>
       <c r="C29" s="94"/>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="143"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="93"/>
       <c r="C30" s="94"/>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="143"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="93"/>
       <c r="C31" s="94"/>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="143"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="93"/>
       <c r="C32" s="94"/>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
+      <c r="N32" s="142"/>
+      <c r="O32" s="142"/>
+      <c r="P32" s="143"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="93"/>
       <c r="C33" s="94"/>
-      <c r="D33" s="147" t="s">
+      <c r="D33" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="148"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="154"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="99"/>
       <c r="C34" s="100"/>
-      <c r="D34" s="143" t="s">
+      <c r="D34" s="151" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="144"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="152"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
     </row>
@@ -14130,6 +14130,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -14144,22 +14160,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14194,23 +14194,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-      <c r="N2" s="159"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
       <c r="R2" s="6" t="s">
         <v>93</v>
       </c>
@@ -14222,23 +14222,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
       <c r="R3" s="6" t="s">
         <v>194</v>
       </c>
@@ -14251,22 +14251,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="103"/>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="162"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="160"/>
       <c r="R4" s="6" t="s">
         <v>196</v>
       </c>
@@ -14279,22 +14279,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="162"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="160"/>
       <c r="R5" s="6" t="s">
         <v>197</v>
       </c>
@@ -14308,21 +14308,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="103"/>
       <c r="C6" s="104"/>
-      <c r="D6" s="163" t="s">
+      <c r="D6" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="164"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="162"/>
       <c r="R6" s="6" t="s">
         <v>200</v>
       </c>
@@ -14336,21 +14336,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="104"/>
-      <c r="D7" s="161" t="s">
+      <c r="D7" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="164"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="162"/>
       <c r="R7" s="6" t="s">
         <v>203</v>
       </c>
@@ -14364,21 +14364,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
-      <c r="D8" s="161" t="s">
+      <c r="D8" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="164"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="161"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="162"/>
       <c r="R8" s="6" t="s">
         <v>206</v>
       </c>
@@ -14392,21 +14392,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="103"/>
       <c r="C9" s="104"/>
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="163"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
       <c r="R9" s="6" t="s">
         <v>209</v>
       </c>
@@ -14420,21 +14420,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
-      <c r="D10" s="161" t="s">
+      <c r="D10" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="162"/>
       <c r="R10" s="6" t="s">
         <v>92</v>
       </c>
@@ -14447,22 +14447,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="162"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="160"/>
       <c r="R11" s="6" t="s">
         <v>94</v>
       </c>
@@ -14475,22 +14475,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="103"/>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="161"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="162"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="160"/>
       <c r="R12" s="6" t="s">
         <v>213</v>
       </c>
@@ -14528,23 +14528,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="157"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
+      <c r="M14" s="164"/>
+      <c r="N14" s="164"/>
+      <c r="O14" s="164"/>
+      <c r="P14" s="165"/>
       <c r="R14" s="6" t="s">
         <v>95</v>
       </c>
@@ -14557,22 +14557,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="103"/>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="162"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="160"/>
       <c r="R15" s="6" t="s">
         <v>217</v>
       </c>
@@ -14586,21 +14586,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="103"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="163" t="s">
+      <c r="D16" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
-      <c r="O16" s="163"/>
-      <c r="P16" s="164"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
       <c r="R16" s="6" t="s">
         <v>220</v>
       </c>
@@ -14642,21 +14642,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="103"/>
       <c r="C18" s="104"/>
-      <c r="D18" s="163" t="s">
+      <c r="D18" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="164"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
       <c r="R18" s="61" t="s">
         <v>226</v>
       </c>
@@ -14670,21 +14670,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="103"/>
       <c r="C19" s="104"/>
-      <c r="D19" s="163" t="s">
+      <c r="D19" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="163"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="164"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="162"/>
       <c r="R19" s="61" t="s">
         <v>229</v>
       </c>
@@ -14698,21 +14698,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="103"/>
       <c r="C20" s="104"/>
-      <c r="D20" s="163" t="s">
+      <c r="D20" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="163"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="164"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
       <c r="R20" s="61" t="s">
         <v>96</v>
       </c>
@@ -14726,21 +14726,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="103"/>
       <c r="C21" s="104"/>
-      <c r="D21" s="163" t="s">
+      <c r="D21" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="163"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="164"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
       <c r="R21" s="61" t="s">
         <v>232</v>
       </c>
@@ -14754,21 +14754,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="103"/>
       <c r="C22" s="104"/>
-      <c r="D22" s="163" t="s">
+      <c r="D22" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="163"/>
-      <c r="K22" s="163"/>
-      <c r="L22" s="163"/>
-      <c r="M22" s="163"/>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="164"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
       <c r="R22" s="61" t="s">
         <v>235</v>
       </c>
@@ -14782,21 +14782,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="103"/>
       <c r="C23" s="104"/>
-      <c r="D23" s="163" t="s">
+      <c r="D23" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="163"/>
-      <c r="N23" s="163"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="164"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
       <c r="R23" s="61" t="s">
         <v>238</v>
       </c>
@@ -14810,21 +14810,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="103"/>
       <c r="C24" s="104"/>
-      <c r="D24" s="163" t="s">
+      <c r="D24" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="163"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="164"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
       <c r="R24" s="61" t="s">
         <v>241</v>
       </c>
@@ -14838,21 +14838,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="103"/>
       <c r="C25" s="104"/>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="163"/>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="163"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="164"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="162"/>
       <c r="R25" s="61" t="s">
         <v>244</v>
       </c>
@@ -14866,21 +14866,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="103"/>
       <c r="C26" s="104"/>
-      <c r="D26" s="163" t="s">
+      <c r="D26" s="161" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="163"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="164"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="162"/>
       <c r="R26" s="61" t="s">
         <v>247</v>
       </c>
@@ -14894,21 +14894,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="103"/>
       <c r="C27" s="104"/>
-      <c r="D27" s="163" t="s">
+      <c r="D27" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="164"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="162"/>
       <c r="R27" s="61" t="s">
         <v>250</v>
       </c>
@@ -14947,22 +14947,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="103"/>
-      <c r="C29" s="161" t="s">
+      <c r="C29" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="162"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="160"/>
       <c r="R29" s="6"/>
       <c r="S29" s="92"/>
       <c r="T29" s="92"/>
@@ -14970,21 +14970,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="103"/>
       <c r="C30" s="104"/>
-      <c r="D30" s="163" t="s">
+      <c r="D30" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="163"/>
-      <c r="P30" s="164"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="162"/>
       <c r="R30" s="6"/>
       <c r="S30" s="92"/>
       <c r="T30" s="92"/>
@@ -14992,21 +14992,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="103"/>
       <c r="C31" s="104"/>
-      <c r="D31" s="163" t="s">
+      <c r="D31" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="163"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="164"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="162"/>
       <c r="R31" s="6"/>
       <c r="S31" s="92"/>
       <c r="T31" s="92"/>
@@ -15014,21 +15014,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="103"/>
       <c r="C32" s="104"/>
-      <c r="D32" s="163" t="s">
+      <c r="D32" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="164"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="161"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="162"/>
       <c r="R32" s="6"/>
       <c r="S32" s="92"/>
       <c r="T32" s="92"/>
@@ -15036,21 +15036,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="103"/>
       <c r="C33" s="104"/>
-      <c r="D33" s="163" t="s">
+      <c r="D33" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="163"/>
-      <c r="K33" s="163"/>
-      <c r="L33" s="163"/>
-      <c r="M33" s="163"/>
-      <c r="N33" s="163"/>
-      <c r="O33" s="163"/>
-      <c r="P33" s="164"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="162"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -15058,21 +15058,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="103"/>
       <c r="C34" s="104"/>
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="165"/>
-      <c r="P34" s="166"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="156"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -15080,21 +15080,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="103"/>
       <c r="C35" s="104"/>
-      <c r="D35" s="165" t="s">
+      <c r="D35" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="165"/>
-      <c r="N35" s="165"/>
-      <c r="O35" s="165"/>
-      <c r="P35" s="166"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="156"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -15102,21 +15102,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="109"/>
       <c r="C36" s="110"/>
-      <c r="D36" s="167" t="s">
+      <c r="D36" s="157" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="167"/>
-      <c r="O36" s="167"/>
-      <c r="P36" s="168"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
+      <c r="P36" s="158"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -15193,14 +15193,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -15213,18 +15217,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
